--- a/src/static/crm_report.xlsx
+++ b/src/static/crm_report.xlsx
@@ -109,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -128,6 +128,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -213,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -231,6 +244,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -251,9 +270,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -600,7 +619,7 @@
   <dimension ref="B2:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -620,33 +639,33 @@
   </cols>
   <sheetData>
     <row r="2" ht="60.75" customHeight="1">
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>"WEBASE" МЧЖга қарашли корхонанинг AI-91 ёқилғи бўйича 2024.04.04 хисоб тўғрисида ҳисоботи</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
-      <c r="M2" s="13" t="n"/>
-      <c r="N2" s="13" t="n"/>
-      <c r="O2" s="13" t="n"/>
-      <c r="P2" s="14" t="n"/>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>"WEBASE" МЧЖга қарашли корхонанинг AI-80 ёқилғи бўйича 2024.04.04 хисоб тўғрисида ҳисоботи</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="n"/>
+      <c r="D2" s="15" t="n"/>
+      <c r="E2" s="15" t="n"/>
+      <c r="F2" s="15" t="n"/>
+      <c r="G2" s="15" t="n"/>
+      <c r="H2" s="15" t="n"/>
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="15" t="n"/>
+      <c r="L2" s="15" t="n"/>
+      <c r="M2" s="15" t="n"/>
+      <c r="N2" s="15" t="n"/>
+      <c r="O2" s="15" t="n"/>
+      <c r="P2" s="16" t="n"/>
     </row>
     <row r="4" ht="35.25" customHeight="1">
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>Сана</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>кун
 бошига
@@ -654,63 +673,63 @@
 (литр)</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>кирим
 (литр)</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>калонка кўрсаткичи</t>
         </is>
       </c>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>жами
 (литр)</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t>сотиб
 олинган
 (нарх)</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>сотилган
 (нарх)</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
+      <c r="J4" s="14" t="inlineStr">
         <is>
           <t>жами
 савдо
 (сўмда)</t>
         </is>
       </c>
-      <c r="K4" s="11" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>пластик</t>
         </is>
       </c>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="11" t="inlineStr">
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="13" t="inlineStr">
         <is>
           <t>нақд</t>
         </is>
       </c>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="7" t="inlineStr">
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="9" t="inlineStr">
         <is>
           <t>фарқ
 (сўмда)</t>
         </is>
       </c>
-      <c r="P4" s="7" t="inlineStr">
+      <c r="P4" s="9" t="inlineStr">
         <is>
           <t>кун
 охирига
@@ -720,9 +739,9 @@
       </c>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="B5" s="15" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="15" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="17" t="n"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>кун
@@ -735,10 +754,10 @@
 бошига</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
+      <c r="G5" s="17" t="n"/>
+      <c r="H5" s="17" t="n"/>
+      <c r="I5" s="17" t="n"/>
+      <c r="J5" s="17" t="n"/>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>литр</t>
@@ -759,8 +778,8 @@
           <t>сум</t>
         </is>
       </c>
-      <c r="O5" s="15" t="n"/>
-      <c r="P5" s="15" t="n"/>
+      <c r="O5" s="17" t="n"/>
+      <c r="P5" s="17" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="inlineStr">
@@ -769,9 +788,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9530</v>
-      </c>
-      <c r="D6" s="5" t="n"/>
+        <v>266</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8000</v>
+      </c>
       <c r="E6" s="5" t="n">
         <v>53008</v>
       </c>
@@ -782,31 +803,31 @@
         <v>300</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8500</v>
+        <v>3250</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2970000</v>
       </c>
       <c r="K6" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>465300</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>253</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>2656500</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>47</v>
-      </c>
       <c r="N6" s="5" t="n">
-        <v>493500</v>
+        <v>2504700</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>420000</v>
+        <v>1995000</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>9230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -824,7 +845,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9230</v>
+        <v>8000</v>
       </c>
       <c r="D8" s="5" t="n"/>
       <c r="E8" s="5" t="n">
@@ -837,31 +858,31 @@
         <v>242</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>446.2809917355372</v>
+        <v>7600</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2395800</v>
       </c>
       <c r="K8" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>1158300</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>125</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>1312500</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>117</v>
-      </c>
       <c r="N8" s="5" t="n">
-        <v>1228500</v>
+        <v>1237500</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>2287800</v>
+        <v>556600</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>9218</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -879,7 +900,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8988</v>
+        <v>7758</v>
       </c>
       <c r="D10" s="5" t="n"/>
       <c r="E10" s="5" t="n">
@@ -892,31 +913,31 @@
         <v>253</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2504700</v>
       </c>
       <c r="K10" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>376200</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>215</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>2257500</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>38</v>
-      </c>
       <c r="N10" s="5" t="n">
-        <v>399000</v>
+        <v>2128500</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>227700</v>
+        <v>581900</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>8735</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -934,7 +955,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8735</v>
+        <v>7505</v>
       </c>
       <c r="D12" s="5" t="n"/>
       <c r="E12" s="5" t="n">
@@ -947,31 +968,31 @@
         <v>217</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2148300</v>
       </c>
       <c r="K12" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>594000</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <v>157</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>1648500</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>60</v>
-      </c>
       <c r="N12" s="5" t="n">
-        <v>630000</v>
+        <v>1554300</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>195300</v>
+        <v>499100</v>
       </c>
       <c r="P12" s="5" t="n">
-        <v>8518</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -989,7 +1010,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8518</v>
+        <v>7288</v>
       </c>
       <c r="D14" s="5" t="n"/>
       <c r="E14" s="5" t="n">
@@ -1002,7 +1023,7 @@
         <v>348</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>9900</v>
@@ -1011,22 +1032,22 @@
         <v>3445200</v>
       </c>
       <c r="K14" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>1138500</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <v>233</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="N14" s="5" t="n">
         <v>2306700</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>1138500</v>
-      </c>
       <c r="O14" s="5" t="n">
-        <v>313200</v>
+        <v>800400</v>
       </c>
       <c r="P14" s="5" t="n">
-        <v>8170</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1044,7 +1065,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>8170</v>
+        <v>6940</v>
       </c>
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n">
@@ -1057,7 +1078,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>9900</v>
@@ -1066,22 +1087,22 @@
         <v>792000</v>
       </c>
       <c r="K16" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>633600</v>
+      </c>
+      <c r="M16" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="N16" s="5" t="n">
         <v>158400</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>633600</v>
-      </c>
       <c r="O16" s="5" t="n">
-        <v>72000</v>
+        <v>184000</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>8090</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1099,7 +1120,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8090</v>
+        <v>6860</v>
       </c>
       <c r="D18" s="5" t="n"/>
       <c r="E18" s="5" t="n">
@@ -1112,7 +1133,7 @@
         <v>121</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9000</v>
+        <v>7600</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>9900</v>
@@ -1121,25 +1142,25 @@
         <v>1197900</v>
       </c>
       <c r="K18" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>495000</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="N18" s="5" t="n">
         <v>702900</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>495000</v>
-      </c>
       <c r="O18" s="5" t="n">
-        <v>108900</v>
+        <v>278300</v>
       </c>
       <c r="P18" s="5" t="n">
-        <v>7969</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" thickBot="1">
       <c r="E19" s="5" t="n">
         <v>126427</v>
       </c>
@@ -1147,22 +1168,50 @@
         <v>125288</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="5" t="n"/>
-      <c r="P20" s="5" t="n"/>
+    <row r="20" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Жами</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7">
+        <f>SUM(H6:H19)</f>
+        <v/>
+      </c>
+      <c r="I20" s="7">
+        <f>SUM(I6:I19)</f>
+        <v/>
+      </c>
+      <c r="J20" s="7">
+        <f>SUM(J6:J19)</f>
+        <v/>
+      </c>
+      <c r="K20" s="7">
+        <f>SUM(K6:K19)</f>
+        <v/>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L6:L19)</f>
+        <v/>
+      </c>
+      <c r="M20" s="7">
+        <f>L20</f>
+        <v/>
+      </c>
+      <c r="N20" s="7">
+        <f>SUM(N6:N19)</f>
+        <v/>
+      </c>
+      <c r="O20" s="7">
+        <f>SUM(O6:O19)</f>
+        <v/>
+      </c>
+      <c r="P20" s="7" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="4" t="n"/>

--- a/src/static/crm_report.xlsx
+++ b/src/static/crm_report.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <name val="Calibri"/>
@@ -109,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,19 +130,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -226,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,7 +238,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -270,9 +259,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -618,8 +613,8 @@
   </sheetPr>
   <dimension ref="B2:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -631,11 +626,15 @@
     <col width="21.140625" customWidth="1" style="3" min="5" max="5"/>
     <col width="23.85546875" customWidth="1" style="3" min="6" max="6"/>
     <col width="16.140625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" style="3" min="8" max="9"/>
-    <col width="10.28515625" customWidth="1" style="3" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="3" min="11" max="14"/>
-    <col width="10.28515625" customWidth="1" style="3" min="15" max="15"/>
-    <col width="11.42578125" customWidth="1" style="3" min="16" max="16"/>
+    <col width="16.28515625" customWidth="1" style="3" min="8" max="8"/>
+    <col width="15.42578125" customWidth="1" style="3" min="9" max="9"/>
+    <col width="16.7109375" customWidth="1" style="3" min="10" max="10"/>
+    <col width="16.42578125" customWidth="1" style="3" min="11" max="11"/>
+    <col width="16" customWidth="1" style="3" min="12" max="12"/>
+    <col width="17.140625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="15.140625" customWidth="1" style="3" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="3" min="15" max="15"/>
+    <col width="16" customWidth="1" style="3" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="2" ht="60.75" customHeight="1">
@@ -644,20 +643,20 @@
           <t>"WEBASE" МЧЖга қарашли корхонанинг AI-80 ёқилғи бўйича 2024.04.04 хисоб тўғрисида ҳисоботи</t>
         </is>
       </c>
-      <c r="C2" s="15" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="15" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="15" t="n"/>
-      <c r="M2" s="15" t="n"/>
-      <c r="N2" s="15" t="n"/>
-      <c r="O2" s="15" t="n"/>
-      <c r="P2" s="16" t="n"/>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="17" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="17" t="n"/>
+      <c r="I2" s="17" t="n"/>
+      <c r="J2" s="17" t="n"/>
+      <c r="K2" s="17" t="n"/>
+      <c r="L2" s="17" t="n"/>
+      <c r="M2" s="17" t="n"/>
+      <c r="N2" s="17" t="n"/>
+      <c r="O2" s="17" t="n"/>
+      <c r="P2" s="18" t="n"/>
     </row>
     <row r="4" ht="35.25" customHeight="1">
       <c r="B4" s="13" t="inlineStr">
@@ -684,7 +683,7 @@
           <t>калонка кўрсаткичи</t>
         </is>
       </c>
-      <c r="F4" s="16" t="n"/>
+      <c r="F4" s="18" t="n"/>
       <c r="G4" s="9" t="inlineStr">
         <is>
           <t>жами
@@ -716,13 +715,13 @@
           <t>пластик</t>
         </is>
       </c>
-      <c r="L4" s="16" t="n"/>
+      <c r="L4" s="18" t="n"/>
       <c r="M4" s="13" t="inlineStr">
         <is>
           <t>нақд</t>
         </is>
       </c>
-      <c r="N4" s="16" t="n"/>
+      <c r="N4" s="18" t="n"/>
       <c r="O4" s="9" t="inlineStr">
         <is>
           <t>фарқ
@@ -739,9 +738,9 @@
       </c>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="17" t="n"/>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>кун
@@ -754,10 +753,10 @@
 бошига</t>
         </is>
       </c>
-      <c r="G5" s="17" t="n"/>
-      <c r="H5" s="17" t="n"/>
-      <c r="I5" s="17" t="n"/>
-      <c r="J5" s="17" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="19" t="n"/>
+      <c r="J5" s="19" t="n"/>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>литр</t>
@@ -778,398 +777,489 @@
           <t>сум</t>
         </is>
       </c>
-      <c r="O5" s="17" t="n"/>
-      <c r="P5" s="17" t="n"/>
+      <c r="O5" s="19" t="n"/>
+      <c r="P5" s="19" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="15" t="inlineStr">
         <is>
           <t>29-March</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="7" t="n">
         <v>266</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>8000</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="7" t="n">
         <v>53008</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>300</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>3250</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="7" t="n">
         <v>2970000</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="7" t="n">
         <v>465300</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="7" t="n">
         <v>253</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="7" t="n">
         <v>2504700</v>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="7" t="n">
         <v>1995000</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="7" t="n">
         <v>232</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="E7" s="5" t="n">
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="7" t="n">
         <v>125742</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G7" s="19" t="n"/>
+      <c r="H7" s="19" t="n"/>
+      <c r="I7" s="19" t="n"/>
+      <c r="J7" s="19" t="n"/>
+      <c r="K7" s="19" t="n"/>
+      <c r="L7" s="19" t="n"/>
+      <c r="M7" s="19" t="n"/>
+      <c r="N7" s="19" t="n"/>
+      <c r="O7" s="19" t="n"/>
+      <c r="P7" s="19" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
         <is>
           <t>30-March</t>
         </is>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="7" t="n">
         <v>8000</v>
       </c>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n">
         <v>53062</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="7" t="n">
         <v>242</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="7" t="n">
         <v>2395800</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="7" t="n">
         <v>117</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="7" t="n">
         <v>1158300</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="7" t="n">
         <v>125</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="7" t="n">
         <v>1237500</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="7" t="n">
         <v>556600</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="7" t="n">
         <v>7758</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="E9" s="5" t="n">
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="7" t="n">
         <v>125930</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="19" t="n"/>
+      <c r="I9" s="19" t="n"/>
+      <c r="J9" s="19" t="n"/>
+      <c r="K9" s="19" t="n"/>
+      <c r="L9" s="19" t="n"/>
+      <c r="M9" s="19" t="n"/>
+      <c r="N9" s="19" t="n"/>
+      <c r="O9" s="19" t="n"/>
+      <c r="P9" s="19" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>31-March</t>
         </is>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="7" t="n">
         <v>7758</v>
       </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n">
         <v>53192</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="7" t="n">
         <v>253</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="7" t="n">
         <v>2504700</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="7" t="n">
         <v>376200</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="7" t="n">
         <v>215</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="7" t="n">
         <v>2128500</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="7" t="n">
         <v>581900</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="7" t="n">
         <v>7505</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="5" t="n">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="7" t="n">
         <v>126053</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="19" t="n"/>
+      <c r="I11" s="19" t="n"/>
+      <c r="J11" s="19" t="n"/>
+      <c r="K11" s="19" t="n"/>
+      <c r="L11" s="19" t="n"/>
+      <c r="M11" s="19" t="n"/>
+      <c r="N11" s="19" t="n"/>
+      <c r="O11" s="19" t="n"/>
+      <c r="P11" s="19" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="15" t="inlineStr">
         <is>
           <t>1-April</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <v>7505</v>
       </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n">
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n">
         <v>53340</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="7" t="n">
         <v>217</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="7" t="n">
         <v>2148300</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="7" t="n">
         <v>60</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="7" t="n">
         <v>594000</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="7" t="n">
         <v>157</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="7" t="n">
         <v>1554300</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="7" t="n">
         <v>499100</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="7" t="n">
         <v>7288</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="E13" s="5" t="n">
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="7" t="n">
         <v>126122</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="19" t="n"/>
+      <c r="I13" s="19" t="n"/>
+      <c r="J13" s="19" t="n"/>
+      <c r="K13" s="19" t="n"/>
+      <c r="L13" s="19" t="n"/>
+      <c r="M13" s="19" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
+      <c r="P13" s="19" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>2-April</t>
         </is>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="7" t="n">
         <v>7288</v>
       </c>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n">
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n">
         <v>53492</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="7" t="n">
         <v>348</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="7" t="n">
         <v>3445200</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="7" t="n">
         <v>115</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="7" t="n">
         <v>1138500</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="7" t="n">
         <v>233</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="7" t="n">
         <v>2306700</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="7" t="n">
         <v>800400</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="7" t="n">
         <v>6940</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="E15" s="5" t="n">
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="7" t="n">
         <v>126318</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="19" t="n"/>
+      <c r="I15" s="19" t="n"/>
+      <c r="J15" s="19" t="n"/>
+      <c r="K15" s="19" t="n"/>
+      <c r="L15" s="19" t="n"/>
+      <c r="M15" s="19" t="n"/>
+      <c r="N15" s="19" t="n"/>
+      <c r="O15" s="19" t="n"/>
+      <c r="P15" s="19" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>3-April</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="7" t="n">
         <v>6940</v>
       </c>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n">
         <v>53517</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="7" t="n">
         <v>792000</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="7" t="n">
         <v>633600</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="7" t="n">
         <v>158400</v>
       </c>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="7" t="n">
         <v>184000</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="7" t="n">
         <v>6860</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="E17" s="5" t="n">
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="7" t="n">
         <v>126373</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="7" t="n">
         <v>125288</v>
       </c>
+      <c r="G17" s="19" t="n"/>
+      <c r="H17" s="19" t="n"/>
+      <c r="I17" s="19" t="n"/>
+      <c r="J17" s="19" t="n"/>
+      <c r="K17" s="19" t="n"/>
+      <c r="L17" s="19" t="n"/>
+      <c r="M17" s="19" t="n"/>
+      <c r="N17" s="19" t="n"/>
+      <c r="O17" s="19" t="n"/>
+      <c r="P17" s="19" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>4-April</t>
         </is>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="7" t="n">
         <v>6860</v>
       </c>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n">
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n">
         <v>53584</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="7" t="n">
         <v>52630</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="7" t="n">
         <v>121</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="7" t="n">
         <v>7600</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="7" t="n">
         <v>9900</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="7" t="n">
         <v>1197900</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="7" t="n">
         <v>495000</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="7" t="n">
         <v>702900</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="7" t="n">
         <v>278300</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="7" t="n">
         <v>6739</v>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="E19" s="5" t="n">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="7" t="n">
         <v>126427</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="7" t="n">
         <v>125288</v>
       </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B20" s="8" t="inlineStr">
+      <c r="G19" s="19" t="n"/>
+      <c r="H19" s="19" t="n"/>
+      <c r="I19" s="19" t="n"/>
+      <c r="J19" s="19" t="n"/>
+      <c r="K19" s="19" t="n"/>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="19" t="n"/>
+      <c r="P19" s="19" t="n"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Жами</t>
         </is>
@@ -1178,36 +1268,39 @@
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="7" t="n"/>
       <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7">
+      <c r="G20" s="8">
+        <f>SUM(G6:G19)</f>
+        <v/>
+      </c>
+      <c r="H20" s="8">
         <f>SUM(H6:H19)</f>
         <v/>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <f>SUM(I6:I19)</f>
         <v/>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <f>SUM(J6:J19)</f>
         <v/>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8">
         <f>SUM(K6:K19)</f>
         <v/>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="8">
         <f>SUM(L6:L19)</f>
         <v/>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="8">
         <f>L20</f>
         <v/>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="8">
         <f>SUM(N6:N19)</f>
         <v/>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="8">
         <f>SUM(O6:O19)</f>
         <v/>
       </c>

--- a/src/static/crm_report.xlsx
+++ b/src/static/crm_report.xlsx
@@ -640,7 +640,7 @@
     <row r="2" ht="60.75" customHeight="1">
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>"WEBASE" МЧЖга қарашли корхонанинг AI-80 ёқилғи бўйича 2024.04.04 хисоб тўғрисида ҳисоботи</t>
+          <t>"WEBASE" МЧЖга қарашли корхонанинг AI-80 ёқилғи бўйича 2024.04.05 хисоб тўғрисида ҳисоботи</t>
         </is>
       </c>
       <c r="C2" s="17" t="n"/>
@@ -783,50 +783,48 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="15" t="inlineStr">
         <is>
-          <t>29-March</t>
+          <t>30-March</t>
         </is>
       </c>
       <c r="C6" s="7" t="n">
-        <v>266</v>
-      </c>
-      <c r="D6" s="7" t="n">
         <v>8000</v>
       </c>
+      <c r="D6" s="7" t="n"/>
       <c r="E6" s="7" t="n">
-        <v>53008</v>
+        <v>53062</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>3250</v>
+        <v>7600</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>9900</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>2970000</v>
+        <v>2395800</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>465300</v>
+        <v>1158300</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>2504700</v>
+        <v>1237500</v>
       </c>
       <c r="O6" s="7" t="n">
-        <v>1995000</v>
+        <v>556600</v>
       </c>
       <c r="P6" s="7" t="n">
-        <v>232</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -834,7 +832,7 @@
       <c r="C7" s="19" t="n"/>
       <c r="D7" s="19" t="n"/>
       <c r="E7" s="7" t="n">
-        <v>125742</v>
+        <v>125930</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>125288</v>
@@ -853,21 +851,21 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>30-March</t>
+          <t>31-March</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>8000</v>
+        <v>7758</v>
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n">
-        <v>53062</v>
+        <v>53192</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>7600</v>
@@ -876,25 +874,25 @@
         <v>9900</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>2395800</v>
+        <v>2504700</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>1158300</v>
+        <v>376200</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>1237500</v>
+        <v>2128500</v>
       </c>
       <c r="O8" s="7" t="n">
-        <v>556600</v>
+        <v>581900</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>7758</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -902,7 +900,7 @@
       <c r="C9" s="19" t="n"/>
       <c r="D9" s="19" t="n"/>
       <c r="E9" s="7" t="n">
-        <v>125930</v>
+        <v>126053</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>125288</v>
@@ -921,21 +919,21 @@
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="15" t="inlineStr">
         <is>
-          <t>31-March</t>
+          <t>1-April</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>7758</v>
+        <v>7505</v>
       </c>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n">
-        <v>53192</v>
+        <v>53340</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>7600</v>
@@ -944,25 +942,25 @@
         <v>9900</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>2504700</v>
+        <v>2148300</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>376200</v>
+        <v>594000</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2128500</v>
+        <v>1554300</v>
       </c>
       <c r="O10" s="7" t="n">
-        <v>581900</v>
+        <v>499100</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>7505</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -970,7 +968,7 @@
       <c r="C11" s="19" t="n"/>
       <c r="D11" s="19" t="n"/>
       <c r="E11" s="7" t="n">
-        <v>126053</v>
+        <v>126122</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>125288</v>
@@ -989,21 +987,21 @@
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="15" t="inlineStr">
         <is>
-          <t>1-April</t>
+          <t>2-April</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>7505</v>
+        <v>7288</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n">
-        <v>53340</v>
+        <v>53492</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7" t="n">
         <v>7600</v>
@@ -1012,25 +1010,25 @@
         <v>9900</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>2148300</v>
+        <v>3445200</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>594000</v>
+        <v>1138500</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>1554300</v>
+        <v>2306700</v>
       </c>
       <c r="O12" s="7" t="n">
-        <v>499100</v>
+        <v>800400</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>7288</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1038,7 +1036,7 @@
       <c r="C13" s="19" t="n"/>
       <c r="D13" s="19" t="n"/>
       <c r="E13" s="7" t="n">
-        <v>126122</v>
+        <v>126318</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>125288</v>
@@ -1057,21 +1055,21 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="15" t="inlineStr">
         <is>
-          <t>2-April</t>
+          <t>3-April</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>7288</v>
+        <v>6940</v>
       </c>
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n">
-        <v>53492</v>
+        <v>53517</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7" t="n">
         <v>7600</v>
@@ -1080,25 +1078,25 @@
         <v>9900</v>
       </c>
       <c r="J14" s="7" t="n">
-        <v>3445200</v>
+        <v>792000</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>1138500</v>
+        <v>633600</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2306700</v>
+        <v>158400</v>
       </c>
       <c r="O14" s="7" t="n">
-        <v>800400</v>
+        <v>184000</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>6940</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1106,7 +1104,7 @@
       <c r="C15" s="19" t="n"/>
       <c r="D15" s="19" t="n"/>
       <c r="E15" s="7" t="n">
-        <v>126318</v>
+        <v>126373</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>125288</v>
@@ -1125,21 +1123,21 @@
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>3-April</t>
+          <t>4-April</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>6940</v>
+        <v>6860</v>
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n">
-        <v>53517</v>
+        <v>53584</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>52630</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7" t="n">
         <v>7600</v>
@@ -1148,25 +1146,25 @@
         <v>9900</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>792000</v>
+        <v>1197900</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>633600</v>
+        <v>495000</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>158400</v>
+        <v>702900</v>
       </c>
       <c r="O16" s="7" t="n">
-        <v>184000</v>
+        <v>278300</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>6860</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -1174,7 +1172,7 @@
       <c r="C17" s="19" t="n"/>
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="7" t="n">
-        <v>126373</v>
+        <v>126427</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>125288</v>
@@ -1193,21 +1191,21 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="15" t="inlineStr">
         <is>
-          <t>4-April</t>
+          <t>5-April</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
-        <v>6860</v>
+        <v>6739</v>
       </c>
       <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n">
+        <v>100524</v>
+      </c>
+      <c r="F18" s="7" t="n">
         <v>53584</v>
       </c>
-      <c r="F18" s="7" t="n">
-        <v>52630</v>
-      </c>
       <c r="G18" s="7" t="n">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="n">
         <v>7600</v>
@@ -1216,25 +1214,25 @@
         <v>9900</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>1197900</v>
+        <v>247500</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>495000</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>702900</v>
+        <v>247500</v>
       </c>
       <c r="O18" s="7" t="n">
-        <v>278300</v>
+        <v>57500</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>6739</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1242,10 +1240,10 @@
       <c r="C19" s="19" t="n"/>
       <c r="D19" s="19" t="n"/>
       <c r="E19" s="7" t="n">
+        <v>45120</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>126427</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>125288</v>
       </c>
       <c r="G19" s="19" t="n"/>
       <c r="H19" s="19" t="n"/>
